--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSITA_2\Magistrale\AdvancedML\PROGETTO\Progetto_AML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FE2E79C-3BF7-4C94-A65E-03198FBCC458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50301A71-5CEA-4C7B-B39A-D29CB449E2E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B12D6640-DCC4-4618-B96D-4ACD43148580}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>FINE-TUNING</t>
   </si>
@@ -78,13 +78,70 @@
   </si>
   <si>
     <t>accuracy_train (6149)</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>0,84---0,86</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0,26---0,28</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.74</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +149,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,8 +190,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -429,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1053890C-70C6-43A9-861F-7F80D9E1B343}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +524,7 @@
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>14</v>
       </c>
@@ -454,68 +534,162 @@
       <c r="F1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>11</v>
       </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSITA_2\Magistrale\AdvancedML\PROGETTO\Progetto_AML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50301A71-5CEA-4C7B-B39A-D29CB449E2E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C7C922-0D29-47D0-A2F6-9F0935453949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B12D6640-DCC4-4618-B96D-4ACD43148580}"/>
+    <workbookView xWindow="7830" yWindow="510" windowWidth="20115" windowHeight="15090" xr2:uid="{B12D6640-DCC4-4618-B96D-4ACD43148580}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>FINE-TUNING</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>0.74</t>
+  </si>
+  <si>
+    <t>mobilenet.output+relu+128+sgd</t>
+  </si>
+  <si>
+    <t>efficientnet.output+relu+128+sgd</t>
   </si>
 </sst>
 </file>
@@ -512,7 +518,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,6 +577,28 @@
         <v>16</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+    </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSITA_2\Magistrale\AdvancedML\PROGETTO\Progetto_AML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C7C922-0D29-47D0-A2F6-9F0935453949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945E70F3-19ED-46E3-A3E7-C070698013F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7830" yWindow="510" windowWidth="20115" windowHeight="15090" xr2:uid="{B12D6640-DCC4-4618-B96D-4ACD43148580}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>FINE-TUNING</t>
   </si>
@@ -140,7 +140,16 @@
     <t>mobilenet.output+relu+128+sgd</t>
   </si>
   <si>
-    <t>efficientnet.output+relu+128+sgd</t>
+    <t>mobilenet.output+relu+128+adam</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>efficientnet.output+relu+128+adam</t>
+  </si>
+  <si>
+    <t>0.89</t>
   </si>
 </sst>
 </file>
@@ -515,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1053890C-70C6-43A9-861F-7F80D9E1B343}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,126 +604,150 @@
       <c r="B6" t="s">
         <v>35</v>
       </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>18</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>20</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G25" s="3"/>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSITA_2\Magistrale\AdvancedML\PROGETTO\Progetto_AML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945E70F3-19ED-46E3-A3E7-C070698013F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28A3EF2-F0FE-49DE-ADE9-DF17001BE8D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7830" yWindow="510" windowWidth="20115" windowHeight="15090" xr2:uid="{B12D6640-DCC4-4618-B96D-4ACD43148580}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>FINE-TUNING</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>0.89</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>efficientnet.output+relu+128+sgd</t>
   </si>
 </sst>
 </file>
@@ -205,11 +211,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -524,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1053890C-70C6-43A9-861F-7F80D9E1B343}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,125 +636,136 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>23</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>28</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>18</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>20</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G26" s="3"/>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSITA_2\Magistrale\AdvancedML\PROGETTO\Progetto_AML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28A3EF2-F0FE-49DE-ADE9-DF17001BE8D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586AC5FC-CFA2-4343-B4C6-0FEDF9463DDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7830" yWindow="510" windowWidth="20115" windowHeight="15090" xr2:uid="{B12D6640-DCC4-4618-B96D-4ACD43148580}"/>
+    <workbookView xWindow="7005" yWindow="1275" windowWidth="20115" windowHeight="15090" xr2:uid="{B12D6640-DCC4-4618-B96D-4ACD43148580}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>FINE-TUNING</t>
   </si>
@@ -44,9 +44,6 @@
     <t>mobilenet.output+relu+128+RMSprop</t>
   </si>
   <si>
-    <t>efficientnet.output+relu+128+RMSprop</t>
-  </si>
-  <si>
     <t>svm solo mobilenet</t>
   </si>
   <si>
@@ -146,16 +143,82 @@
     <t>0.82</t>
   </si>
   <si>
-    <t>efficientnet.output+relu+128+adam</t>
-  </si>
-  <si>
     <t>0.89</t>
   </si>
   <si>
     <t>0.88</t>
   </si>
   <si>
-    <t>efficientnet.output+relu+128+sgd</t>
+    <t>efficientnetB2.output+relu+128+Adam</t>
+  </si>
+  <si>
+    <t>efficientnetB2.output+relu+128+RMSprop</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>efficientnetB2.output+relu+128+SGD</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>efficientnetB0.output+relu+128+sgd</t>
+  </si>
+  <si>
+    <t>efficientnetB0.output+relu+128+adam</t>
+  </si>
+  <si>
+    <t>efficientnetB0.output+relu+128+RMSprop</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>efficientnetB2.output+RMSprop</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>efficientnetB0.output+dropout0.5+Adam</t>
+  </si>
+  <si>
+    <t>0.79-0.86</t>
+  </si>
+  <si>
+    <t>0.84-0.85</t>
+  </si>
+  <si>
+    <t>0.83-0.90</t>
+  </si>
+  <si>
+    <t>0.81-0.83</t>
+  </si>
+  <si>
+    <t>0.83-0.84</t>
+  </si>
+  <si>
+    <t>0.83-0.78</t>
+  </si>
+  <si>
+    <t>0.80-0.72</t>
+  </si>
+  <si>
+    <t>0.85-0.74</t>
+  </si>
+  <si>
+    <t>0.85-0.61</t>
+  </si>
+  <si>
+    <t>0.85-0.62</t>
+  </si>
+  <si>
+    <t>0.86-0.62</t>
   </si>
 </sst>
 </file>
@@ -531,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1053890C-70C6-43A9-861F-7F80D9E1B343}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,16 +611,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -570,202 +633,275 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>8</v>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
         <v>18</v>
       </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G27" s="3"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSITA_2\Magistrale\AdvancedML\PROGETTO\Progetto_AML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5066A9AF-CBFB-4C3F-AD20-EF978BA9F6D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1089B1CA-3B49-4932-9913-633A37C0A3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="675" windowWidth="20115" windowHeight="15090" xr2:uid="{B12D6640-DCC4-4618-B96D-4ACD43148580}"/>
+    <workbookView xWindow="9090" yWindow="855" windowWidth="20115" windowHeight="15090" xr2:uid="{B12D6640-DCC4-4618-B96D-4ACD43148580}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="efficientnet_only" sheetId="2" r:id="rId2"/>
-    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
+    <sheet name="effb0relu" sheetId="4" r:id="rId2"/>
+    <sheet name="efficientnet_only" sheetId="2" r:id="rId3"/>
+    <sheet name="Foglio3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="482">
   <si>
     <t>FINE-TUNING</t>
   </si>
@@ -28831,6 +28832,7022 @@
         <family val="3"/>
       </rPr>
       <t>0.85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.83</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.77</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.87</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.82</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.82</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.78</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.74</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.83</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.82</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.67</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.83</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.82</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.69</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.78</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.84</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.86</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.71</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.82</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.86</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.57</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.84</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>41</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.84</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>49</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>51</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>54</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.84</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.82</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>57</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>58</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>59</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.84</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>61</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>67</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.71</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.83</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>68</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.82</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.86</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>69</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.72</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>71</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.82</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>72</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>73</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>74</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>76</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>77</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.84</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>79</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.84</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>82</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.59</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.74</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>83</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>84</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.84</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.86</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.71</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>86</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>87</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.67</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>88</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.84</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.67</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>92</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>93</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.71</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.83</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>96</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.84</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>97</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.83</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>98</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.83</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>   macro avg       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>weighted avg       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.89</t>
     </r>
     <r>
       <rPr>
@@ -28856,7 +35873,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28889,6 +35906,14 @@
       <color rgb="FFB5CEA8"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -28929,7 +35954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -28942,6 +35967,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -29259,7 +36286,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29333,7 +36360,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D6" t="s">
@@ -29347,7 +36374,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="1"/>
@@ -29360,6 +36387,9 @@
       <c r="F7" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -29376,7 +36406,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D9" t="s">
@@ -29432,7 +36462,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="1"/>
@@ -29480,6 +36510,9 @@
       <c r="F17" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="H17" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -29526,6 +36559,9 @@
       </c>
       <c r="F20" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -29592,11 +36628,560 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C91FFEA-6C50-4A10-AA75-208C93D7C35B}">
+  <dimension ref="A1:A107"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="7"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE39C793-1B35-46D8-BB76-8990294C8B1F}">
   <dimension ref="A1:A218"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30687,12 +38272,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF16D03-B289-49DE-9669-623BFB44234D}">
   <dimension ref="A1:A216"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSITA_2\Magistrale\AdvancedML\PROGETTO\Progetto_AML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1089B1CA-3B49-4932-9913-633A37C0A3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B38856F-388F-4E76-9307-9262EFCFB004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9090" yWindow="855" windowWidth="20115" windowHeight="15090" xr2:uid="{B12D6640-DCC4-4618-B96D-4ACD43148580}"/>
+    <workbookView xWindow="1470" yWindow="960" windowWidth="20115" windowHeight="15090" xr2:uid="{B12D6640-DCC4-4618-B96D-4ACD43148580}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="486">
   <si>
     <t>FINE-TUNING</t>
   </si>
@@ -185,9 +185,6 @@
     <t>efficientnetB2.output+RMSprop</t>
   </si>
   <si>
-    <t>0.91</t>
-  </si>
-  <si>
     <t>efficientnetB0.output+dropout0.5+Adam</t>
   </si>
   <si>
@@ -35866,6 +35863,95 @@
         <family val="3"/>
       </rPr>
       <t>1020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0.89 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 0.91</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -0.89</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.91 -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.93</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.90 -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.91</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.90-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.91</t>
     </r>
   </si>
 </sst>
@@ -35873,7 +35959,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -35911,6 +35997,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -36285,8 +36378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1053890C-70C6-43A9-861F-7F80D9E1B343}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36379,13 +36472,13 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>481</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>482</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>482</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>36</v>
@@ -36463,17 +36556,17 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>483</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>484</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -36486,13 +36579,13 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
         <v>51</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>52</v>
-      </c>
-      <c r="F16" t="s">
-        <v>53</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -36502,13 +36595,13 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>36</v>
@@ -36519,13 +36612,13 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
         <v>54</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>55</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -36548,11 +36641,11 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>21</v>
@@ -36639,517 +36732,517 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
@@ -37157,17 +37250,17 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -37188,517 +37281,517 @@
   <sheetData>
     <row r="1" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
@@ -37706,17 +37799,17 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
@@ -37724,7 +37817,7 @@
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
@@ -37732,512 +37825,512 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
@@ -38245,17 +38338,17 @@
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
@@ -38263,7 +38356,7 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -38284,517 +38377,517 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
@@ -38802,17 +38895,17 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
@@ -38820,7 +38913,7 @@
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
@@ -38828,512 +38921,512 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
@@ -39341,17 +39434,17 @@
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
